--- a/biology/Zoologie/Bouscarle_de_David/Bouscarle_de_David.xlsx
+++ b/biology/Zoologie/Bouscarle_de_David/Bouscarle_de_David.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Locustella davidi
 La Bouscarle de David (Locustella davidi, anciennement Bradypterus davidi) est une espèce de passereaux de la famille des Locustellidae.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Locustella davidi a été initialement décrite en 1923 par John La Touche (d) sous le protonyme de Tribura thoracica davidi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Locustella davidi a été initialement décrite en 1923 par John La Touche (d) sous le protonyme de Tribura thoracica davidi.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle niche dans le Nord-Est de la Chine, du Sud du Heilongjiang au Sud de Ho-pei, et hiverne du Sud de la Chine au Nord de la Thaïlande.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les forêts boréales.
 </t>
@@ -605,9 +623,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.1, 2021)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.1, 2021) :
 sous-espèce Locustella davidi davidi (La Touche, 1923)
 sous-espèce Locustella davidi suschkini (Stegmann, 1929)</t>
         </is>
@@ -637,7 +657,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique, davidi, lui a été donnée en l'honneur du Père Armand David (1826-1900), missionnaire lazariste, botaniste et zoologiste français.
 </t>
@@ -668,7 +690,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) John David Digues La Touche, « Mr. J. D. La Touche sent the following notes and descriptions », Bulletin of the British Ornithologists' Club, Londres, vol. 43, nos 253-280,‎ 1923, p. 168-169 (ISSN 0007-1595, lire en ligne, consulté le 22 juin 2021).</t>
         </is>
